--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_100ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9338.045197438518</v>
+        <v>9546.078948474969</v>
       </c>
       <c r="AB2" t="n">
-        <v>12776.72540461516</v>
+        <v>13061.36636058461</v>
       </c>
       <c r="AC2" t="n">
-        <v>11557.33266424493</v>
+        <v>11814.80788687274</v>
       </c>
       <c r="AD2" t="n">
-        <v>9338045.197438518</v>
+        <v>9546078.94847497</v>
       </c>
       <c r="AE2" t="n">
-        <v>12776725.40461516</v>
+        <v>13061366.36058461</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.269345521494822e-07</v>
+        <v>8.908090048993967e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.45555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>11557332.66424493</v>
+        <v>11814807.88687274</v>
       </c>
     </row>
     <row r="3">
@@ -3108,28 +3108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3079.952398335781</v>
+        <v>3184.011989035569</v>
       </c>
       <c r="AB3" t="n">
-        <v>4214.12674931329</v>
+        <v>4356.505672093887</v>
       </c>
       <c r="AC3" t="n">
-        <v>3811.936406922709</v>
+        <v>3940.726885143196</v>
       </c>
       <c r="AD3" t="n">
-        <v>3079952.398335781</v>
+        <v>3184011.989035569</v>
       </c>
       <c r="AE3" t="n">
-        <v>4214126.74931329</v>
+        <v>4356505.672093888</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.94056489021753e-07</v>
+        <v>1.68050181599792e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.38333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3811936.40692271</v>
+        <v>3940726.885143196</v>
       </c>
     </row>
     <row r="4">
@@ -3214,28 +3214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2327.207945774854</v>
+        <v>2420.76771141549</v>
       </c>
       <c r="AB4" t="n">
-        <v>3184.188580577879</v>
+        <v>3312.201179492955</v>
       </c>
       <c r="AC4" t="n">
-        <v>2880.294091484147</v>
+        <v>2996.089347625575</v>
       </c>
       <c r="AD4" t="n">
-        <v>2327207.945774854</v>
+        <v>2420767.71141549</v>
       </c>
       <c r="AE4" t="n">
-        <v>3184188.580577879</v>
+        <v>3312201.179492956</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.167513073325666e-06</v>
+        <v>1.973738778020452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.35416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2880294.091484147</v>
+        <v>2996089.347625575</v>
       </c>
     </row>
     <row r="5">
@@ -3320,28 +3320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2015.853845286681</v>
+        <v>2099.084467577307</v>
       </c>
       <c r="AB5" t="n">
-        <v>2758.1801643163</v>
+        <v>2872.059973610243</v>
       </c>
       <c r="AC5" t="n">
-        <v>2494.943320564126</v>
+        <v>2597.954600690371</v>
       </c>
       <c r="AD5" t="n">
-        <v>2015853.845286681</v>
+        <v>2099084.467577307</v>
       </c>
       <c r="AE5" t="n">
-        <v>2758180.1643163</v>
+        <v>2872059.973610243</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.260441453646602e-06</v>
+        <v>2.130838815706198e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.075</v>
       </c>
       <c r="AH5" t="n">
-        <v>2494943.320564126</v>
+        <v>2597954.60069037</v>
       </c>
     </row>
     <row r="6">
@@ -3426,28 +3426,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1823.038845981916</v>
+        <v>1906.184127417971</v>
       </c>
       <c r="AB6" t="n">
-        <v>2494.362175870104</v>
+        <v>2608.125218041849</v>
       </c>
       <c r="AC6" t="n">
-        <v>2256.303750664362</v>
+        <v>2359.209407758668</v>
       </c>
       <c r="AD6" t="n">
-        <v>1823038.845981916</v>
+        <v>1906184.127417971</v>
       </c>
       <c r="AE6" t="n">
-        <v>2494362.175870104</v>
+        <v>2608125.218041849</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.318941109076265e-06</v>
+        <v>2.22973538574071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.36111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>2256303.750664362</v>
+        <v>2359209.407758668</v>
       </c>
     </row>
     <row r="7">
@@ -3532,28 +3532,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1677.611759127994</v>
+        <v>1760.842291910069</v>
       </c>
       <c r="AB7" t="n">
-        <v>2295.382419846299</v>
+        <v>2409.262106670693</v>
       </c>
       <c r="AC7" t="n">
-        <v>2076.314343285628</v>
+        <v>2179.325512630646</v>
       </c>
       <c r="AD7" t="n">
-        <v>1677611.759127994</v>
+        <v>1760842.291910069</v>
       </c>
       <c r="AE7" t="n">
-        <v>2295382.419846299</v>
+        <v>2409262.106670693</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.359934633205281e-06</v>
+        <v>2.299036972223747e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.89861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>2076314.343285628</v>
+        <v>2179325.512630646</v>
       </c>
     </row>
     <row r="8">
@@ -3638,28 +3638,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1581.496991092595</v>
+        <v>1664.72752387467</v>
       </c>
       <c r="AB8" t="n">
-        <v>2163.873953935966</v>
+        <v>2277.753640760359</v>
       </c>
       <c r="AC8" t="n">
-        <v>1957.356860788485</v>
+        <v>2060.368030133503</v>
       </c>
       <c r="AD8" t="n">
-        <v>1581496.991092596</v>
+        <v>1664727.52387467</v>
       </c>
       <c r="AE8" t="n">
-        <v>2163873.953935966</v>
+        <v>2277753.640760359</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.385756176873735e-06</v>
+        <v>2.342689572962173e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.62222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>1957356.860788486</v>
+        <v>2060368.030133503</v>
       </c>
     </row>
     <row r="9">
@@ -3744,28 +3744,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1571.994727179295</v>
+        <v>1655.22525996137</v>
       </c>
       <c r="AB9" t="n">
-        <v>2150.872537239491</v>
+        <v>2264.752224063885</v>
       </c>
       <c r="AC9" t="n">
-        <v>1945.596281053919</v>
+        <v>2048.607450398937</v>
       </c>
       <c r="AD9" t="n">
-        <v>1571994.727179295</v>
+        <v>1655225.25996137</v>
       </c>
       <c r="AE9" t="n">
-        <v>2150872.537239491</v>
+        <v>2264752.224063884</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38940328756137e-06</v>
+        <v>2.348855194535397e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1945596.281053919</v>
+        <v>2048607.450398937</v>
       </c>
     </row>
     <row r="10">
@@ -3850,28 +3850,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1578.714275135025</v>
+        <v>1661.9448079171</v>
       </c>
       <c r="AB10" t="n">
-        <v>2160.066519198054</v>
+        <v>2273.946206022448</v>
       </c>
       <c r="AC10" t="n">
-        <v>1953.912802278192</v>
+        <v>2056.92397162321</v>
       </c>
       <c r="AD10" t="n">
-        <v>1578714.275135025</v>
+        <v>1661944.8079171</v>
       </c>
       <c r="AE10" t="n">
-        <v>2160066.519198054</v>
+        <v>2273946.206022448</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.38940328756137e-06</v>
+        <v>2.348855194535397e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.58333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1953912.802278192</v>
+        <v>2056923.97162321</v>
       </c>
     </row>
   </sheetData>
@@ -4147,28 +4147,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5591.791293312384</v>
+        <v>5743.064559624267</v>
       </c>
       <c r="AB2" t="n">
-        <v>7650.935539931627</v>
+        <v>7857.914296605057</v>
       </c>
       <c r="AC2" t="n">
-        <v>6920.740990155735</v>
+        <v>7107.965984788756</v>
       </c>
       <c r="AD2" t="n">
-        <v>5591791.293312385</v>
+        <v>5743064.559624267</v>
       </c>
       <c r="AE2" t="n">
-        <v>7650935.539931627</v>
+        <v>7857914.296605057</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.942108363696204e-07</v>
+        <v>1.202228083722227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.19444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>6920740.990155735</v>
+        <v>7107965.984788756</v>
       </c>
     </row>
     <row r="3">
@@ -4253,28 +4253,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2374.910642339991</v>
+        <v>2475.730979924021</v>
       </c>
       <c r="AB3" t="n">
-        <v>3249.457514512747</v>
+        <v>3387.404348274604</v>
       </c>
       <c r="AC3" t="n">
-        <v>2939.333849969794</v>
+        <v>3064.11523152701</v>
       </c>
       <c r="AD3" t="n">
-        <v>2374910.642339991</v>
+        <v>2475730.979924021</v>
       </c>
       <c r="AE3" t="n">
-        <v>3249457.514512748</v>
+        <v>3387404.348274604</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.126734370507736e-06</v>
+        <v>1.951268450667423e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.60277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2939333.849969794</v>
+        <v>3064115.23152701</v>
       </c>
     </row>
     <row r="4">
@@ -4359,28 +4359,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1863.345355640905</v>
+        <v>1943.984647045765</v>
       </c>
       <c r="AB4" t="n">
-        <v>2549.511320583239</v>
+        <v>2659.845556637827</v>
       </c>
       <c r="AC4" t="n">
-        <v>2306.189538408386</v>
+        <v>2405.993629828997</v>
       </c>
       <c r="AD4" t="n">
-        <v>1863345.355640905</v>
+        <v>1943984.647045765</v>
       </c>
       <c r="AE4" t="n">
-        <v>2549511.320583239</v>
+        <v>2659845.556637826</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.282629977892479e-06</v>
+        <v>2.221247061642435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.34027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>2306189.538408387</v>
+        <v>2405993.629828997</v>
       </c>
     </row>
     <row r="5">
@@ -4465,28 +4465,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1611.526532988687</v>
+        <v>1692.080483538976</v>
       </c>
       <c r="AB5" t="n">
-        <v>2204.961697968086</v>
+        <v>2315.179166900476</v>
       </c>
       <c r="AC5" t="n">
-        <v>1994.523248197191</v>
+        <v>2094.221716585863</v>
       </c>
       <c r="AD5" t="n">
-        <v>1611526.532988688</v>
+        <v>1692080.483538976</v>
       </c>
       <c r="AE5" t="n">
-        <v>2204961.697968086</v>
+        <v>2315179.166900476</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.368500840043417e-06</v>
+        <v>2.36995744852025e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.31666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1994523.248197191</v>
+        <v>2094221.716585863</v>
       </c>
     </row>
     <row r="6">
@@ -4571,28 +4571,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1456.352270390338</v>
+        <v>1536.991472286648</v>
       </c>
       <c r="AB6" t="n">
-        <v>1992.645426075713</v>
+        <v>2102.979539660751</v>
       </c>
       <c r="AC6" t="n">
-        <v>1802.470143306467</v>
+        <v>1902.27412394585</v>
       </c>
       <c r="AD6" t="n">
-        <v>1456352.270390338</v>
+        <v>1536991.472286648</v>
       </c>
       <c r="AE6" t="n">
-        <v>1992645.426075713</v>
+        <v>2102979.539660751</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.416793767790869e-06</v>
+        <v>2.453590706518318e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.79444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1802470.143306467</v>
+        <v>1902274.12394585</v>
       </c>
     </row>
     <row r="7">
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1444.961178611647</v>
+        <v>1525.600380507956</v>
       </c>
       <c r="AB7" t="n">
-        <v>1977.059631764605</v>
+        <v>2087.393745349644</v>
       </c>
       <c r="AC7" t="n">
-        <v>1788.371835329611</v>
+        <v>1888.175815968995</v>
       </c>
       <c r="AD7" t="n">
-        <v>1444961.178611647</v>
+        <v>1525600.380507956</v>
       </c>
       <c r="AE7" t="n">
-        <v>1977059.631764605</v>
+        <v>2087393.745349644</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.422075806763246e-06</v>
+        <v>2.462738094111857e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.74027777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1788371.835329611</v>
+        <v>1888175.815968995</v>
       </c>
     </row>
   </sheetData>
@@ -4974,28 +4974,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1701.351383573623</v>
+        <v>1792.419698846205</v>
       </c>
       <c r="AB2" t="n">
-        <v>2327.864021331123</v>
+        <v>2452.467707937588</v>
       </c>
       <c r="AC2" t="n">
-        <v>2105.695946312954</v>
+        <v>2218.40763195207</v>
       </c>
       <c r="AD2" t="n">
-        <v>1701351.383573623</v>
+        <v>1792419.698846205</v>
       </c>
       <c r="AE2" t="n">
-        <v>2327864.021331123</v>
+        <v>2452467.707937588</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.233863872994735e-06</v>
+        <v>2.334735962526826e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2105695.946312954</v>
+        <v>2218407.631952071</v>
       </c>
     </row>
     <row r="3">
@@ -5080,28 +5080,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1175.411893593932</v>
+        <v>1257.279502399227</v>
       </c>
       <c r="AB3" t="n">
-        <v>1608.250408328185</v>
+        <v>1720.265282439586</v>
       </c>
       <c r="AC3" t="n">
-        <v>1454.761246550967</v>
+        <v>1556.085578291039</v>
       </c>
       <c r="AD3" t="n">
-        <v>1175411.893593932</v>
+        <v>1257279.502399227</v>
       </c>
       <c r="AE3" t="n">
-        <v>1608250.408328185</v>
+        <v>1720265.282439586</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.468612916116703e-06</v>
+        <v>2.778931667694342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.925</v>
       </c>
       <c r="AH3" t="n">
-        <v>1454761.246550967</v>
+        <v>1556085.578291039</v>
       </c>
     </row>
   </sheetData>
@@ -5377,28 +5377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2658.363159201633</v>
+        <v>2762.74084642431</v>
       </c>
       <c r="AB2" t="n">
-        <v>3637.289753125351</v>
+        <v>3780.103909601994</v>
       </c>
       <c r="AC2" t="n">
-        <v>3290.151924055161</v>
+        <v>3419.336097878595</v>
       </c>
       <c r="AD2" t="n">
-        <v>2658363.159201633</v>
+        <v>2762740.84642431</v>
       </c>
       <c r="AE2" t="n">
-        <v>3637289.753125351</v>
+        <v>3780103.909601993</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012690655043373e-06</v>
+        <v>1.844902442618735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.09444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>3290151.92405516</v>
+        <v>3419336.097878595</v>
       </c>
     </row>
     <row r="3">
@@ -5483,28 +5483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1472.018832032124</v>
+        <v>1547.906626917882</v>
       </c>
       <c r="AB3" t="n">
-        <v>2014.081106873922</v>
+        <v>2117.914135769844</v>
       </c>
       <c r="AC3" t="n">
-        <v>1821.860032814462</v>
+        <v>1915.783383163128</v>
       </c>
       <c r="AD3" t="n">
-        <v>1472018.832032124</v>
+        <v>1547906.626917882</v>
       </c>
       <c r="AE3" t="n">
-        <v>2014081.106873922</v>
+        <v>2117914.135769844</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.37662132474477e-06</v>
+        <v>2.507905086251525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.25416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1821860.032814462</v>
+        <v>1915783.383163128</v>
       </c>
     </row>
     <row r="4">
@@ -5589,28 +5589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1266.301036623721</v>
+        <v>1342.103490654908</v>
       </c>
       <c r="AB4" t="n">
-        <v>1732.608943567539</v>
+        <v>1836.325205341262</v>
       </c>
       <c r="AC4" t="n">
-        <v>1567.251177725377</v>
+        <v>1661.068905042104</v>
       </c>
       <c r="AD4" t="n">
-        <v>1266301.036623721</v>
+        <v>1342103.490654908</v>
       </c>
       <c r="AE4" t="n">
-        <v>1732608.943567539</v>
+        <v>1836325.205341262</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.464422216726736e-06</v>
+        <v>2.667859243303261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.28055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1567251.177725377</v>
+        <v>1661068.905042104</v>
       </c>
     </row>
     <row r="5">
@@ -5695,28 +5695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1274.457344101674</v>
+        <v>1350.259798132861</v>
       </c>
       <c r="AB5" t="n">
-        <v>1743.768763289765</v>
+        <v>1847.485025063488</v>
       </c>
       <c r="AC5" t="n">
-        <v>1577.345919916219</v>
+        <v>1671.163647232946</v>
       </c>
       <c r="AD5" t="n">
-        <v>1274457.344101674</v>
+        <v>1350259.798132861</v>
       </c>
       <c r="AE5" t="n">
-        <v>1743768.763289765</v>
+        <v>1847485.025063488</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464100011618546e-06</v>
+        <v>2.66727225557096e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.28194444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>1577345.919916219</v>
+        <v>1671163.647232946</v>
       </c>
     </row>
   </sheetData>
@@ -5992,28 +5992,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1181.320690489568</v>
+        <v>1251.741979734657</v>
       </c>
       <c r="AB2" t="n">
-        <v>1616.335084918515</v>
+        <v>1712.688599631663</v>
       </c>
       <c r="AC2" t="n">
-        <v>1462.074332954431</v>
+        <v>1549.232003456363</v>
       </c>
       <c r="AD2" t="n">
-        <v>1181320.690489568</v>
+        <v>1251741.979734657</v>
       </c>
       <c r="AE2" t="n">
-        <v>1616335.084918515</v>
+        <v>1712688.599631663</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.41719164451171e-06</v>
+        <v>2.777239003432313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.14027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1462074.332954431</v>
+        <v>1549232.003456363</v>
       </c>
     </row>
     <row r="3">
@@ -6098,28 +6098,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1132.675790862352</v>
+        <v>1211.814299711386</v>
       </c>
       <c r="AB3" t="n">
-        <v>1549.776987187049</v>
+        <v>1658.057786338901</v>
       </c>
       <c r="AC3" t="n">
-        <v>1401.868446655579</v>
+        <v>1499.815078309435</v>
       </c>
       <c r="AD3" t="n">
-        <v>1132675.790862352</v>
+        <v>1211814.299711386</v>
       </c>
       <c r="AE3" t="n">
-        <v>1549776.987187049</v>
+        <v>1658057.786338901</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.446749263655543e-06</v>
+        <v>2.835162413475515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.79027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1401868.446655579</v>
+        <v>1499815.078309434</v>
       </c>
     </row>
   </sheetData>
@@ -6395,28 +6395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6320.075719700414</v>
+        <v>6492.892048321544</v>
       </c>
       <c r="AB2" t="n">
-        <v>8647.406421757079</v>
+        <v>8883.861346694861</v>
       </c>
       <c r="AC2" t="n">
-        <v>7822.110089575398</v>
+        <v>8035.998088343677</v>
       </c>
       <c r="AD2" t="n">
-        <v>6320075.719700414</v>
+        <v>6492892.048321544</v>
       </c>
       <c r="AE2" t="n">
-        <v>8647406.42175708</v>
+        <v>8883861.346694861</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.499866170358683e-07</v>
+        <v>1.118289759599766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>7822110.089575398</v>
+        <v>8035998.088343677</v>
       </c>
     </row>
     <row r="3">
@@ -6501,28 +6501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2549.275936064444</v>
+        <v>2640.85738398314</v>
       </c>
       <c r="AB3" t="n">
-        <v>3488.03180184041</v>
+        <v>3613.33757917111</v>
       </c>
       <c r="AC3" t="n">
-        <v>3155.13894215601</v>
+        <v>3268.485711966026</v>
       </c>
       <c r="AD3" t="n">
-        <v>2549275.936064444</v>
+        <v>2640857.38398314</v>
       </c>
       <c r="AE3" t="n">
-        <v>3488031.801840411</v>
+        <v>3613337.57917111</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.09103828147185e-06</v>
+        <v>1.877110859705544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.03888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3155138.94215601</v>
+        <v>3268485.711966026</v>
       </c>
     </row>
     <row r="4">
@@ -6607,28 +6607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1973.024297502511</v>
+        <v>2064.520315058084</v>
       </c>
       <c r="AB4" t="n">
-        <v>2699.578887531706</v>
+        <v>2824.767775270653</v>
       </c>
       <c r="AC4" t="n">
-        <v>2441.934867388445</v>
+        <v>2555.175903385293</v>
       </c>
       <c r="AD4" t="n">
-        <v>1973024.297502511</v>
+        <v>2064520.315058084</v>
       </c>
       <c r="AE4" t="n">
-        <v>2699578.887531706</v>
+        <v>2824767.775270652</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.252712357177274e-06</v>
+        <v>2.155268068662595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.58194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>2441934.867388444</v>
+        <v>2555175.903385293</v>
       </c>
     </row>
     <row r="5">
@@ -6713,28 +6713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1711.768768280953</v>
+        <v>1793.174420201082</v>
       </c>
       <c r="AB5" t="n">
-        <v>2342.11754667027</v>
+        <v>2453.500350991287</v>
       </c>
       <c r="AC5" t="n">
-        <v>2118.589135198681</v>
+        <v>2219.341721002048</v>
       </c>
       <c r="AD5" t="n">
-        <v>1711768.768280953</v>
+        <v>1793174.420201082</v>
       </c>
       <c r="AE5" t="n">
-        <v>2342117.54667027</v>
+        <v>2453500.350991287</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339157885167778e-06</v>
+        <v>2.30399597502446e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.51111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>2118589.135198681</v>
+        <v>2219341.721002048</v>
       </c>
     </row>
     <row r="6">
@@ -6819,28 +6819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1538.964635009445</v>
+        <v>1620.284946075002</v>
       </c>
       <c r="AB6" t="n">
-        <v>2105.679307947878</v>
+        <v>2216.945345146698</v>
       </c>
       <c r="AC6" t="n">
-        <v>1904.716230136802</v>
+        <v>2005.363192908231</v>
       </c>
       <c r="AD6" t="n">
-        <v>1538964.635009445</v>
+        <v>1620284.946075002</v>
       </c>
       <c r="AE6" t="n">
-        <v>2105679.307947878</v>
+        <v>2216945.345146698</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.393148950227592e-06</v>
+        <v>2.396886587821403e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.90972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1904716.230136802</v>
+        <v>2005363.19290823</v>
       </c>
     </row>
     <row r="7">
@@ -6925,28 +6925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1476.134040825235</v>
+        <v>1557.454351890792</v>
       </c>
       <c r="AB7" t="n">
-        <v>2019.711717094856</v>
+        <v>2130.977754293675</v>
       </c>
       <c r="AC7" t="n">
-        <v>1826.953265498521</v>
+        <v>1927.600228269949</v>
       </c>
       <c r="AD7" t="n">
-        <v>1476134.040825235</v>
+        <v>1557454.351890792</v>
       </c>
       <c r="AE7" t="n">
-        <v>2019711.717094856</v>
+        <v>2130977.754293676</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.413040395249628e-06</v>
+        <v>2.431109445167645e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>1826953.265498521</v>
+        <v>1927600.228269949</v>
       </c>
     </row>
     <row r="8">
@@ -7031,28 +7031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1481.570552334618</v>
+        <v>1562.890863400175</v>
       </c>
       <c r="AB8" t="n">
-        <v>2027.150191983955</v>
+        <v>2138.416229182774</v>
       </c>
       <c r="AC8" t="n">
-        <v>1833.681822784169</v>
+        <v>1934.328785555597</v>
       </c>
       <c r="AD8" t="n">
-        <v>1481570.552334618</v>
+        <v>1562890.863400175</v>
       </c>
       <c r="AE8" t="n">
-        <v>2027150.191983955</v>
+        <v>2138416.229182774</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.41289083551262e-06</v>
+        <v>2.430852130450756e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.70277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1833681.822784169</v>
+        <v>1934328.785555597</v>
       </c>
     </row>
   </sheetData>
@@ -7328,28 +7328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1108.076746481983</v>
+        <v>1185.634025828274</v>
       </c>
       <c r="AB2" t="n">
-        <v>1516.119489432581</v>
+        <v>1622.236780619858</v>
       </c>
       <c r="AC2" t="n">
-        <v>1371.423173248203</v>
+        <v>1467.41277910112</v>
       </c>
       <c r="AD2" t="n">
-        <v>1108076.746481983</v>
+        <v>1185634.025828274</v>
       </c>
       <c r="AE2" t="n">
-        <v>1516119.489432581</v>
+        <v>1622236.780619858</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.415783739247296e-06</v>
+        <v>2.83816556391232e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1371423.173248203</v>
+        <v>1467412.77910112</v>
       </c>
     </row>
     <row r="3">
@@ -7434,28 +7434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1120.197081300683</v>
+        <v>1197.754360646975</v>
       </c>
       <c r="AB3" t="n">
-        <v>1532.703066242961</v>
+        <v>1638.820357430239</v>
       </c>
       <c r="AC3" t="n">
-        <v>1386.424036762996</v>
+        <v>1482.413642615913</v>
       </c>
       <c r="AD3" t="n">
-        <v>1120197.081300683</v>
+        <v>1197754.360646975</v>
       </c>
       <c r="AE3" t="n">
-        <v>1532703.066242961</v>
+        <v>1638820.357430239</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.416141712379849e-06</v>
+        <v>2.838883178467039e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.55277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1386424.036762996</v>
+        <v>1482413.642615913</v>
       </c>
     </row>
   </sheetData>
@@ -7731,28 +7731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3873.328430250118</v>
+        <v>4000.913702926213</v>
       </c>
       <c r="AB2" t="n">
-        <v>5299.65883745881</v>
+        <v>5474.226636199231</v>
       </c>
       <c r="AC2" t="n">
-        <v>4793.866836129435</v>
+        <v>4951.774129165507</v>
       </c>
       <c r="AD2" t="n">
-        <v>3873328.430250118</v>
+        <v>4000913.702926213</v>
       </c>
       <c r="AE2" t="n">
-        <v>5299658.83745881</v>
+        <v>5474226.63619923</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.401104475622858e-07</v>
+        <v>1.487898028635716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.70555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>4793866.836129435</v>
+        <v>4951774.129165508</v>
       </c>
     </row>
     <row r="3">
@@ -7837,28 +7837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1914.500648859799</v>
+        <v>2002.658322358041</v>
       </c>
       <c r="AB3" t="n">
-        <v>2619.504249577588</v>
+        <v>2740.12546769995</v>
       </c>
       <c r="AC3" t="n">
-        <v>2369.502440495208</v>
+        <v>2478.611738852913</v>
       </c>
       <c r="AD3" t="n">
-        <v>1914500.648859799</v>
+        <v>2002658.322358041</v>
       </c>
       <c r="AE3" t="n">
-        <v>2619504.249577588</v>
+        <v>2740125.46769995</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.240340744068916e-06</v>
+        <v>2.196735623621527e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.41111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>2369502.440495208</v>
+        <v>2478611.738852913</v>
       </c>
     </row>
     <row r="4">
@@ -7943,28 +7943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1512.352513284849</v>
+        <v>1590.866527239369</v>
       </c>
       <c r="AB4" t="n">
-        <v>2069.267428960336</v>
+        <v>2176.693766646743</v>
       </c>
       <c r="AC4" t="n">
-        <v>1871.779449775437</v>
+        <v>1968.953168566866</v>
       </c>
       <c r="AD4" t="n">
-        <v>1512352.513284849</v>
+        <v>1590866.527239369</v>
       </c>
       <c r="AE4" t="n">
-        <v>2069267.428960335</v>
+        <v>2176693.766646743</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.385723544082008e-06</v>
+        <v>2.454219365389877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1871779.449775437</v>
+        <v>1968953.168566866</v>
       </c>
     </row>
     <row r="5">
@@ -8049,28 +8049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1350.012993740083</v>
+        <v>1428.441666840031</v>
       </c>
       <c r="AB5" t="n">
-        <v>1847.147336405046</v>
+        <v>1954.456906969256</v>
       </c>
       <c r="AC5" t="n">
-        <v>1670.858187106117</v>
+        <v>1767.926282865607</v>
       </c>
       <c r="AD5" t="n">
-        <v>1350012.993740083</v>
+        <v>1428441.666840031</v>
       </c>
       <c r="AE5" t="n">
-        <v>1847147.336405046</v>
+        <v>1954456.906969256</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.444032153712928e-06</v>
+        <v>2.557488245778252e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.95555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1670858.187106117</v>
+        <v>1767926.282865607</v>
       </c>
     </row>
     <row r="6">
@@ -8155,28 +8155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1354.803456181722</v>
+        <v>1433.23212928167</v>
       </c>
       <c r="AB6" t="n">
-        <v>1853.701858457985</v>
+        <v>1961.011429022194</v>
       </c>
       <c r="AC6" t="n">
-        <v>1676.787154773652</v>
+        <v>1773.855250533142</v>
       </c>
       <c r="AD6" t="n">
-        <v>1354803.456181722</v>
+        <v>1433232.12928167</v>
       </c>
       <c r="AE6" t="n">
-        <v>1853701.858457985</v>
+        <v>1961011.429022194</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.445120581092705e-06</v>
+        <v>2.559415931545502e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.94305555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1676787.154773653</v>
+        <v>1773855.250533142</v>
       </c>
     </row>
   </sheetData>
@@ -8452,28 +8452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4940.672652981544</v>
+        <v>5090.620187534358</v>
       </c>
       <c r="AB2" t="n">
-        <v>6760.04629090384</v>
+        <v>6965.211122897355</v>
       </c>
       <c r="AC2" t="n">
-        <v>6114.876960684281</v>
+        <v>6300.461149062978</v>
       </c>
       <c r="AD2" t="n">
-        <v>4940672.652981544</v>
+        <v>5090620.187534357</v>
       </c>
       <c r="AE2" t="n">
-        <v>6760046.290903839</v>
+        <v>6965211.122897356</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.407201334141499e-07</v>
+        <v>1.291751233581576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.56388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>6114876.960684281</v>
+        <v>6300461.149062978</v>
       </c>
     </row>
     <row r="3">
@@ -8558,28 +8558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2223.493250225605</v>
+        <v>2313.427724124015</v>
       </c>
       <c r="AB3" t="n">
-        <v>3042.281558557948</v>
+        <v>3165.333873374726</v>
       </c>
       <c r="AC3" t="n">
-        <v>2751.930476478047</v>
+        <v>2863.238851073717</v>
       </c>
       <c r="AD3" t="n">
-        <v>2223493.250225605</v>
+        <v>2313427.724124015</v>
       </c>
       <c r="AE3" t="n">
-        <v>3042281.558557948</v>
+        <v>3165333.873374727</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.162117066574072e-06</v>
+        <v>2.026630688967557e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.20833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2751930.476478047</v>
+        <v>2863238.851073717</v>
       </c>
     </row>
     <row r="4">
@@ -8664,28 +8664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1746.177418133044</v>
+        <v>1826.109700337629</v>
       </c>
       <c r="AB4" t="n">
-        <v>2389.196979400397</v>
+        <v>2498.563854276123</v>
       </c>
       <c r="AC4" t="n">
-        <v>2161.175372945444</v>
+        <v>2260.104426780403</v>
       </c>
       <c r="AD4" t="n">
-        <v>1746177.418133044</v>
+        <v>1826109.700337629</v>
       </c>
       <c r="AE4" t="n">
-        <v>2389196.979400397</v>
+        <v>2498563.854276123</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316598805628359e-06</v>
+        <v>2.296033352655693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.07222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>2161175.372945444</v>
+        <v>2260104.426780403</v>
       </c>
     </row>
     <row r="5">
@@ -8770,28 +8770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1513.010238615552</v>
+        <v>1583.025669980883</v>
       </c>
       <c r="AB5" t="n">
-        <v>2070.167357774597</v>
+        <v>2165.965559831473</v>
       </c>
       <c r="AC5" t="n">
-        <v>1872.593490646724</v>
+        <v>1959.248846752913</v>
       </c>
       <c r="AD5" t="n">
-        <v>1513010.238615552</v>
+        <v>1583025.669980883</v>
       </c>
       <c r="AE5" t="n">
-        <v>2070167.357774597</v>
+        <v>2165965.559831474</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.397343698822415e-06</v>
+        <v>2.436845395806296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.14305555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1872593.490646724</v>
+        <v>1959248.846752913</v>
       </c>
     </row>
     <row r="6">
@@ -8876,28 +8876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1411.364382951195</v>
+        <v>1491.296575647229</v>
       </c>
       <c r="AB6" t="n">
-        <v>1931.091013755958</v>
+        <v>2040.457766162135</v>
       </c>
       <c r="AC6" t="n">
-        <v>1746.790397706349</v>
+        <v>1845.719340760081</v>
       </c>
       <c r="AD6" t="n">
-        <v>1411364.382951195</v>
+        <v>1491296.575647229</v>
       </c>
       <c r="AE6" t="n">
-        <v>1931091.013755958</v>
+        <v>2040457.766162135</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.428879911824622e-06</v>
+        <v>2.491841797565117e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.80972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1746790.397706349</v>
+        <v>1845719.340760081</v>
       </c>
     </row>
     <row r="7">
@@ -8982,28 +8982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1415.590211006913</v>
+        <v>1495.522403702947</v>
       </c>
       <c r="AB7" t="n">
-        <v>1936.872978132168</v>
+        <v>2046.239730538345</v>
       </c>
       <c r="AC7" t="n">
-        <v>1752.020539517531</v>
+        <v>1850.949482571264</v>
       </c>
       <c r="AD7" t="n">
-        <v>1415590.211006914</v>
+        <v>1495522.403702947</v>
       </c>
       <c r="AE7" t="n">
-        <v>1936872.978132168</v>
+        <v>2046239.730538345</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429794004955121e-06</v>
+        <v>2.493435896166822e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.79861111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1752020.539517531</v>
+        <v>1850949.482571264</v>
       </c>
     </row>
   </sheetData>
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8168.744077060981</v>
+        <v>8354.732481544248</v>
       </c>
       <c r="AB2" t="n">
-        <v>11176.83602578984</v>
+        <v>11431.31356603317</v>
       </c>
       <c r="AC2" t="n">
-        <v>10110.13448227592</v>
+        <v>10340.32504323989</v>
       </c>
       <c r="AD2" t="n">
-        <v>8168744.077060981</v>
+        <v>8354732.481544249</v>
       </c>
       <c r="AE2" t="n">
-        <v>11176836.02578984</v>
+        <v>11431313.56603317</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.665860883782291e-07</v>
+        <v>9.631587989687937e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.04444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>10110134.48227592</v>
+        <v>10340325.04323989</v>
       </c>
     </row>
     <row r="3">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2889.259261355559</v>
+        <v>3002.800258208759</v>
       </c>
       <c r="AB3" t="n">
-        <v>3953.211986509476</v>
+        <v>4108.563787479292</v>
       </c>
       <c r="AC3" t="n">
-        <v>3575.922982884732</v>
+        <v>3716.448226007605</v>
       </c>
       <c r="AD3" t="n">
-        <v>2889259.261355559</v>
+        <v>3002800.258208759</v>
       </c>
       <c r="AE3" t="n">
-        <v>3953211.986509476</v>
+        <v>4108563.787479292</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.025237012243191e-06</v>
+        <v>1.742834971816878e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.92083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3575922.982884732</v>
+        <v>3716448.226007605</v>
       </c>
     </row>
     <row r="4">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2211.415372228204</v>
+        <v>2294.11486432755</v>
       </c>
       <c r="AB4" t="n">
-        <v>3025.756073043531</v>
+        <v>3138.90916657796</v>
       </c>
       <c r="AC4" t="n">
-        <v>2736.982160107462</v>
+        <v>2839.336081206326</v>
       </c>
       <c r="AD4" t="n">
-        <v>2211415.372228204</v>
+        <v>2294114.86432755</v>
       </c>
       <c r="AE4" t="n">
-        <v>3025756.073043531</v>
+        <v>3138909.16657796</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.194786391921389e-06</v>
+        <v>2.031057680150908e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.09444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>2736982.160107462</v>
+        <v>2839336.081206325</v>
       </c>
     </row>
     <row r="5">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1906.925046413866</v>
+        <v>1999.791192619367</v>
       </c>
       <c r="AB5" t="n">
-        <v>2609.138976099071</v>
+        <v>2736.202534302659</v>
       </c>
       <c r="AC5" t="n">
-        <v>2360.126414169727</v>
+        <v>2475.063204713188</v>
       </c>
       <c r="AD5" t="n">
-        <v>1906925.046413866</v>
+        <v>1999791.192619367</v>
       </c>
       <c r="AE5" t="n">
-        <v>2609138.976099072</v>
+        <v>2736202.534302659</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.285810733656692e-06</v>
+        <v>2.185793028337174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.88333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2360126.414169727</v>
+        <v>2475063.204713189</v>
       </c>
     </row>
     <row r="6">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1733.688666215535</v>
+        <v>1816.217476605738</v>
       </c>
       <c r="AB6" t="n">
-        <v>2372.109318062012</v>
+        <v>2485.028877352038</v>
       </c>
       <c r="AC6" t="n">
-        <v>2145.718534022511</v>
+        <v>2247.861209057494</v>
       </c>
       <c r="AD6" t="n">
-        <v>1733688.666215535</v>
+        <v>1816217.476605738</v>
       </c>
       <c r="AE6" t="n">
-        <v>2372109.318062012</v>
+        <v>2485028.877352038</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.342719328570363e-06</v>
+        <v>2.282533867994824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.20972222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2145718.534022511</v>
+        <v>2247861.209057495</v>
       </c>
     </row>
     <row r="7">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1593.599241421116</v>
+        <v>1676.21330315734</v>
       </c>
       <c r="AB7" t="n">
-        <v>2180.43278674905</v>
+        <v>2293.468990691727</v>
       </c>
       <c r="AC7" t="n">
-        <v>1972.335341838357</v>
+        <v>2074.583529124053</v>
       </c>
       <c r="AD7" t="n">
-        <v>1593599.241421116</v>
+        <v>1676213.30315734</v>
       </c>
       <c r="AE7" t="n">
-        <v>2180432.78674905</v>
+        <v>2293468.990691727</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.3810995437447e-06</v>
+        <v>2.347777690089517e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.7875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1972335.341838357</v>
+        <v>2074583.529124053</v>
       </c>
     </row>
     <row r="8">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1537.679826926113</v>
+        <v>1620.293888662337</v>
       </c>
       <c r="AB8" t="n">
-        <v>2103.921376846532</v>
+        <v>2216.957580789208</v>
       </c>
       <c r="AC8" t="n">
-        <v>1903.126073512496</v>
+        <v>2005.374260798192</v>
       </c>
       <c r="AD8" t="n">
-        <v>1537679.826926113</v>
+        <v>1620293.888662337</v>
       </c>
       <c r="AE8" t="n">
-        <v>2103921.376846531</v>
+        <v>2216957.580789208</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.397422163991257e-06</v>
+        <v>2.375525062704502e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.61527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>1903126.073512496</v>
+        <v>2005374.260798192</v>
       </c>
     </row>
     <row r="9">
@@ -10021,28 +10021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1541.601072845988</v>
+        <v>1624.215134582211</v>
       </c>
       <c r="AB9" t="n">
-        <v>2109.286598507264</v>
+        <v>2222.322802449941</v>
       </c>
       <c r="AC9" t="n">
-        <v>1907.979245948065</v>
+        <v>2010.227433233761</v>
       </c>
       <c r="AD9" t="n">
-        <v>1541601.072845988</v>
+        <v>1624215.134582211</v>
       </c>
       <c r="AE9" t="n">
-        <v>2109286.598507265</v>
+        <v>2222322.802449941</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.398304467788368e-06</v>
+        <v>2.37702492068369e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.60555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>1907979.245948065</v>
+        <v>2010227.433233761</v>
       </c>
     </row>
   </sheetData>
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3022.083826239249</v>
+        <v>3137.210990372505</v>
       </c>
       <c r="AB2" t="n">
-        <v>4134.94841598959</v>
+        <v>4292.470481008741</v>
       </c>
       <c r="AC2" t="n">
-        <v>3740.314742603939</v>
+        <v>3882.803122821262</v>
       </c>
       <c r="AD2" t="n">
-        <v>3022083.826239249</v>
+        <v>3137210.990372506</v>
       </c>
       <c r="AE2" t="n">
-        <v>4134948.41598959</v>
+        <v>4292470.48100874</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.518132780812855e-07</v>
+        <v>1.716344577419923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>3740314.742603939</v>
+        <v>3882803.122821262</v>
       </c>
     </row>
     <row r="3">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1616.499124550689</v>
+        <v>1702.887100946503</v>
       </c>
       <c r="AB3" t="n">
-        <v>2211.765417118474</v>
+        <v>2329.965257591766</v>
       </c>
       <c r="AC3" t="n">
-        <v>2000.677629940945</v>
+        <v>2107.596643533985</v>
       </c>
       <c r="AD3" t="n">
-        <v>1616499.124550689</v>
+        <v>1702887.100946503</v>
       </c>
       <c r="AE3" t="n">
-        <v>2211765.417118474</v>
+        <v>2329965.257591766</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.327893269621342e-06</v>
+        <v>2.394505797714206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.64027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2000677.629940945</v>
+        <v>2107596.643533985</v>
       </c>
     </row>
     <row r="4">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1310.707407122838</v>
+        <v>1387.401985811477</v>
       </c>
       <c r="AB4" t="n">
-        <v>1793.367698755233</v>
+        <v>1898.304604843044</v>
       </c>
       <c r="AC4" t="n">
-        <v>1622.211202593406</v>
+        <v>1717.133077644069</v>
       </c>
       <c r="AD4" t="n">
-        <v>1310707.407122838</v>
+        <v>1387401.985811477</v>
       </c>
       <c r="AE4" t="n">
-        <v>1793367.698755233</v>
+        <v>1898304.604843044</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.452139662765498e-06</v>
+        <v>2.618551446212444e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.21666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1622211.202593406</v>
+        <v>1717133.077644069</v>
       </c>
     </row>
     <row r="5">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1302.75326131314</v>
+        <v>1370.010375349769</v>
       </c>
       <c r="AB5" t="n">
-        <v>1782.484485546256</v>
+        <v>1874.508636145631</v>
       </c>
       <c r="AC5" t="n">
-        <v>1612.366667978409</v>
+        <v>1695.608162801286</v>
       </c>
       <c r="AD5" t="n">
-        <v>1302753.261313139</v>
+        <v>1370010.375349768</v>
       </c>
       <c r="AE5" t="n">
-        <v>1782484.485546256</v>
+        <v>1874508.636145631</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.457866769235651e-06</v>
+        <v>2.628878774440276e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.15555555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1612366.667978409</v>
+        <v>1695608.162801286</v>
       </c>
     </row>
   </sheetData>
@@ -10933,28 +10933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1998.895649744466</v>
+        <v>2100.493893529562</v>
       </c>
       <c r="AB2" t="n">
-        <v>2734.977213032656</v>
+        <v>2873.988412377602</v>
       </c>
       <c r="AC2" t="n">
-        <v>2473.954826385446</v>
+        <v>2599.698991968354</v>
       </c>
       <c r="AD2" t="n">
-        <v>1998895.649744466</v>
+        <v>2100493.893529562</v>
       </c>
       <c r="AE2" t="n">
-        <v>2734977.213032656</v>
+        <v>2873988.412377602</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.151886215952301e-06</v>
+        <v>2.149051486903189e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.98055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2473954.826385446</v>
+        <v>2599698.991968354</v>
       </c>
     </row>
     <row r="3">
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1213.664958677439</v>
+        <v>1287.678722673249</v>
       </c>
       <c r="AB3" t="n">
-        <v>1660.589939581565</v>
+        <v>1761.858836737449</v>
       </c>
       <c r="AC3" t="n">
-        <v>1502.105566400518</v>
+        <v>1593.709502143634</v>
       </c>
       <c r="AD3" t="n">
-        <v>1213664.958677439</v>
+        <v>1287678.722673248</v>
       </c>
       <c r="AE3" t="n">
-        <v>1660589.939581565</v>
+        <v>1761858.836737449</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464756475730454e-06</v>
+        <v>2.732767384942783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1502105.566400517</v>
+        <v>1593709.502143634</v>
       </c>
     </row>
     <row r="4">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1212.681086959009</v>
+        <v>1286.694850954819</v>
       </c>
       <c r="AB4" t="n">
-        <v>1659.243762891053</v>
+        <v>1760.512660046938</v>
       </c>
       <c r="AC4" t="n">
-        <v>1500.887866923978</v>
+        <v>1592.491802667095</v>
       </c>
       <c r="AD4" t="n">
-        <v>1212681.08695901</v>
+        <v>1286694.850954819</v>
       </c>
       <c r="AE4" t="n">
-        <v>1659243.762891053</v>
+        <v>1760512.660046938</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.470059361489406e-06</v>
+        <v>2.742660874740064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.65694444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1500887.866923978</v>
+        <v>1592491.802667095</v>
       </c>
     </row>
   </sheetData>
@@ -19831,28 +19831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1417.543083697774</v>
+        <v>1507.040628453558</v>
       </c>
       <c r="AB2" t="n">
-        <v>1939.544984702466</v>
+        <v>2061.999473790343</v>
       </c>
       <c r="AC2" t="n">
-        <v>1754.437533530945</v>
+        <v>1865.205138046229</v>
       </c>
       <c r="AD2" t="n">
-        <v>1417543.083697774</v>
+        <v>1507040.628453558</v>
       </c>
       <c r="AE2" t="n">
-        <v>1939544.984702466</v>
+        <v>2061999.473790343</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.326827363716772e-06</v>
+        <v>2.551538223972869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.94583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1754437.533530945</v>
+        <v>1865205.138046229</v>
       </c>
     </row>
     <row r="3">
@@ -19937,28 +19937,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1157.626676403294</v>
+        <v>1229.276006229215</v>
       </c>
       <c r="AB3" t="n">
-        <v>1583.915889539548</v>
+        <v>1681.949663552716</v>
       </c>
       <c r="AC3" t="n">
-        <v>1432.749180081805</v>
+        <v>1521.426748294424</v>
       </c>
       <c r="AD3" t="n">
-        <v>1157626.676403294</v>
+        <v>1229276.006229215</v>
       </c>
       <c r="AE3" t="n">
-        <v>1583915.889539548</v>
+        <v>1681949.663552716</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.461910046224371e-06</v>
+        <v>2.811307231788195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.28611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1432749.180081805</v>
+        <v>1521426.748294424</v>
       </c>
     </row>
   </sheetData>
@@ -20234,28 +20234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1102.372815805745</v>
+        <v>1186.3081424522</v>
       </c>
       <c r="AB2" t="n">
-        <v>1508.315119841691</v>
+        <v>1623.15913672464</v>
       </c>
       <c r="AC2" t="n">
-        <v>1364.363641737566</v>
+        <v>1468.247106833796</v>
       </c>
       <c r="AD2" t="n">
-        <v>1102372.815805745</v>
+        <v>1186308.1424522</v>
       </c>
       <c r="AE2" t="n">
-        <v>1508315.119841691</v>
+        <v>1623159.13672464</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.352885986603764e-06</v>
+        <v>2.790461717850087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1364363.641737566</v>
+        <v>1468247.106833796</v>
       </c>
     </row>
   </sheetData>
@@ -20531,28 +20531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4386.600980778868</v>
+        <v>4525.1735521609</v>
       </c>
       <c r="AB2" t="n">
-        <v>6001.940985079083</v>
+        <v>6191.542090634377</v>
       </c>
       <c r="AC2" t="n">
-        <v>5429.124161239987</v>
+        <v>5600.6300033879</v>
       </c>
       <c r="AD2" t="n">
-        <v>4386600.980778867</v>
+        <v>4525173.5521609</v>
       </c>
       <c r="AE2" t="n">
-        <v>6001940.985079083</v>
+        <v>6191542.090634377</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.88582391261296e-07</v>
+        <v>1.385508153624784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.09861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>5429124.161239987</v>
+        <v>5600630.0033879</v>
       </c>
     </row>
     <row r="3">
@@ -20637,28 +20637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2060.85425743242</v>
+        <v>2150.046291164106</v>
       </c>
       <c r="AB3" t="n">
-        <v>2819.751713492171</v>
+        <v>2941.788188918683</v>
       </c>
       <c r="AC3" t="n">
-        <v>2550.638567502863</v>
+        <v>2661.028052993937</v>
       </c>
       <c r="AD3" t="n">
-        <v>2060854.25743242</v>
+        <v>2150046.291164106</v>
       </c>
       <c r="AE3" t="n">
-        <v>2819751.713492171</v>
+        <v>2941788.188918683</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.200491671535733e-06</v>
+        <v>2.109216510162062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.80277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>2550638.567502863</v>
+        <v>2661028.052993937</v>
       </c>
     </row>
     <row r="4">
@@ -20743,28 +20743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1627.842795252616</v>
+        <v>1707.124603014115</v>
       </c>
       <c r="AB4" t="n">
-        <v>2227.286327820283</v>
+        <v>2335.763194866071</v>
       </c>
       <c r="AC4" t="n">
-        <v>2014.717246709109</v>
+        <v>2112.841233812286</v>
       </c>
       <c r="AD4" t="n">
-        <v>1627842.795252616</v>
+        <v>1707124.603014115</v>
       </c>
       <c r="AE4" t="n">
-        <v>2227286.327820283</v>
+        <v>2335763.194866071</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.349283705164938e-06</v>
+        <v>2.370638243733802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.8375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2014717.246709109</v>
+        <v>2112841.233812286</v>
       </c>
     </row>
     <row r="5">
@@ -20849,28 +20849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1410.941848420108</v>
+        <v>1490.138315327036</v>
       </c>
       <c r="AB5" t="n">
-        <v>1930.512883369617</v>
+        <v>2038.872983293208</v>
       </c>
       <c r="AC5" t="n">
-        <v>1746.267443272669</v>
+        <v>1844.285807343908</v>
       </c>
       <c r="AD5" t="n">
-        <v>1410941.848420108</v>
+        <v>1490138.315327036</v>
       </c>
       <c r="AE5" t="n">
-        <v>1930512.883369617</v>
+        <v>2038872.983293208</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.425449223930663e-06</v>
+        <v>2.504458055644878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.99166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1746267.443272669</v>
+        <v>1844285.807343908</v>
       </c>
     </row>
     <row r="6">
@@ -20955,28 +20955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1382.327828901449</v>
+        <v>1461.524295808376</v>
       </c>
       <c r="AB6" t="n">
-        <v>1891.361919502739</v>
+        <v>1999.72201942633</v>
       </c>
       <c r="AC6" t="n">
-        <v>1710.852992448523</v>
+        <v>1808.871356519762</v>
       </c>
       <c r="AD6" t="n">
-        <v>1382327.828901449</v>
+        <v>1461524.295808376</v>
       </c>
       <c r="AE6" t="n">
-        <v>1891361.919502739</v>
+        <v>1999722.01942633</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.437604932986203e-06</v>
+        <v>2.525815156939777e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.86527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1710852.992448523</v>
+        <v>1808871.356519762</v>
       </c>
     </row>
     <row r="7">
@@ -21061,28 +21061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1389.615615007602</v>
+        <v>1468.812081914529</v>
       </c>
       <c r="AB7" t="n">
-        <v>1901.333389967609</v>
+        <v>2009.693489891199</v>
       </c>
       <c r="AC7" t="n">
-        <v>1719.872799767272</v>
+        <v>1817.891163838511</v>
       </c>
       <c r="AD7" t="n">
-        <v>1389615.615007602</v>
+        <v>1468812.081914529</v>
       </c>
       <c r="AE7" t="n">
-        <v>1901333.389967609</v>
+        <v>2009693.489891199</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.437604932986203e-06</v>
+        <v>2.525815156939777e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.86527777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1719872.799767273</v>
+        <v>1817891.163838511</v>
       </c>
     </row>
   </sheetData>
@@ -21358,28 +21358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7170.959312646944</v>
+        <v>7355.430952841279</v>
       </c>
       <c r="AB2" t="n">
-        <v>9811.622891961384</v>
+        <v>10064.02512838968</v>
       </c>
       <c r="AC2" t="n">
-        <v>8875.215373851437</v>
+        <v>9103.528695083773</v>
       </c>
       <c r="AD2" t="n">
-        <v>7170959.312646943</v>
+        <v>7355430.952841279</v>
       </c>
       <c r="AE2" t="n">
-        <v>9811622.891961385</v>
+        <v>10064025.12838968</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.074776476703295e-07</v>
+        <v>1.038719078751981e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.90277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>8875215.373851437</v>
+        <v>9103528.695083773</v>
       </c>
     </row>
     <row r="3">
@@ -21464,28 +21464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2716.917699453009</v>
+        <v>2819.326174976573</v>
       </c>
       <c r="AB3" t="n">
-        <v>3717.406658341288</v>
+        <v>3857.526452495716</v>
       </c>
       <c r="AC3" t="n">
-        <v>3362.622584282069</v>
+        <v>3489.369541941758</v>
       </c>
       <c r="AD3" t="n">
-        <v>2716917.699453009</v>
+        <v>2819326.174976573</v>
       </c>
       <c r="AE3" t="n">
-        <v>3717406.658341288</v>
+        <v>3857526.452495716</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057340274722265e-06</v>
+        <v>1.807934037241976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.47638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3362622.584282069</v>
+        <v>3489369.541941758</v>
       </c>
     </row>
     <row r="4">
@@ -21570,28 +21570,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2086.673936401749</v>
+        <v>2178.909756498918</v>
       </c>
       <c r="AB4" t="n">
-        <v>2855.079337341851</v>
+        <v>2981.280455555993</v>
       </c>
       <c r="AC4" t="n">
-        <v>2582.594572514961</v>
+        <v>2696.751233131127</v>
       </c>
       <c r="AD4" t="n">
-        <v>2086673.936401749</v>
+        <v>2178909.756498918</v>
       </c>
       <c r="AE4" t="n">
-        <v>2855079.337341851</v>
+        <v>2981280.455555993</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.222962079078564e-06</v>
+        <v>2.09112886540062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.83888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>2582594.572514961</v>
+        <v>2696751.233131127</v>
       </c>
     </row>
     <row r="5">
@@ -21676,28 +21676,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1807.620878722108</v>
+        <v>1889.684132901432</v>
       </c>
       <c r="AB5" t="n">
-        <v>2473.266632872524</v>
+        <v>2585.549197615936</v>
       </c>
       <c r="AC5" t="n">
-        <v>2237.221536682691</v>
+        <v>2338.788011036562</v>
       </c>
       <c r="AD5" t="n">
-        <v>1807620.878722108</v>
+        <v>1889684.132901432</v>
       </c>
       <c r="AE5" t="n">
-        <v>2473266.632872524</v>
+        <v>2585549.197615936</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.312371164151839e-06</v>
+        <v>2.244008436913299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.69166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2237221.536682691</v>
+        <v>2338788.011036562</v>
       </c>
     </row>
     <row r="6">
@@ -21782,28 +21782,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1639.536634262457</v>
+        <v>1711.342071177917</v>
       </c>
       <c r="AB6" t="n">
-        <v>2243.286354249315</v>
+        <v>2341.533720869349</v>
       </c>
       <c r="AC6" t="n">
-        <v>2029.190253071932</v>
+        <v>2118.061028912795</v>
       </c>
       <c r="AD6" t="n">
-        <v>1639536.634262457</v>
+        <v>1711342.071177917</v>
       </c>
       <c r="AE6" t="n">
-        <v>2243286.354249314</v>
+        <v>2341533.720869349</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.368270376544252e-06</v>
+        <v>2.339589860562187e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.05138888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>2029190.253071932</v>
+        <v>2118061.028912795</v>
       </c>
     </row>
     <row r="7">
@@ -21888,28 +21888,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1515.80089480794</v>
+        <v>1597.778808132693</v>
       </c>
       <c r="AB7" t="n">
-        <v>2073.985656692083</v>
+        <v>2186.151454313299</v>
       </c>
       <c r="AC7" t="n">
-        <v>1876.047376474542</v>
+        <v>1977.508227796474</v>
       </c>
       <c r="AD7" t="n">
-        <v>1515800.89480794</v>
+        <v>1597778.808132692</v>
       </c>
       <c r="AE7" t="n">
-        <v>2073985.656692084</v>
+        <v>2186151.454313299</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.401631975452191e-06</v>
+        <v>2.396634476798261e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.69305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1876047.376474542</v>
+        <v>1977508.227796474</v>
       </c>
     </row>
     <row r="8">
@@ -21994,28 +21994,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1508.21941010564</v>
+        <v>1590.197323430393</v>
       </c>
       <c r="AB8" t="n">
-        <v>2063.612334850899</v>
+        <v>2175.778132472113</v>
       </c>
       <c r="AC8" t="n">
-        <v>1866.664069910831</v>
+        <v>1968.124921232763</v>
       </c>
       <c r="AD8" t="n">
-        <v>1508219.41010564</v>
+        <v>1590197.323430393</v>
       </c>
       <c r="AE8" t="n">
-        <v>2063612.334850898</v>
+        <v>2175778.132472113</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.405338819775295e-06</v>
+        <v>2.402972767491159e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.65416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1866664.069910831</v>
+        <v>1968124.921232763</v>
       </c>
     </row>
   </sheetData>
@@ -22291,28 +22291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1131.485490676114</v>
+        <v>1221.002703810334</v>
       </c>
       <c r="AB2" t="n">
-        <v>1548.1483659599</v>
+        <v>1670.629766190861</v>
       </c>
       <c r="AC2" t="n">
-        <v>1400.395258752565</v>
+        <v>1511.187206049208</v>
       </c>
       <c r="AD2" t="n">
-        <v>1131485.490676114</v>
+        <v>1221002.703810334</v>
       </c>
       <c r="AE2" t="n">
-        <v>1548148.3659599</v>
+        <v>1670629.766190861</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.218395301728048e-06</v>
+        <v>2.61158231285742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.71666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1400395.258752565</v>
+        <v>1511187.206049208</v>
       </c>
     </row>
   </sheetData>
@@ -22588,28 +22588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2321.682680427504</v>
+        <v>2415.465209686849</v>
       </c>
       <c r="AB2" t="n">
-        <v>3176.62866877213</v>
+        <v>3304.946062697962</v>
       </c>
       <c r="AC2" t="n">
-        <v>2873.455687050736</v>
+        <v>2989.526648994876</v>
       </c>
       <c r="AD2" t="n">
-        <v>2321682.680427504</v>
+        <v>2415465.209686849</v>
       </c>
       <c r="AE2" t="n">
-        <v>3176628.66877213</v>
+        <v>3304946.062697962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.079084712718259e-06</v>
+        <v>1.988140782845503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.01805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>2873455.687050736</v>
+        <v>2989526.648994876</v>
       </c>
     </row>
     <row r="3">
@@ -22694,28 +22694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1316.179226015367</v>
+        <v>1400.412740081939</v>
       </c>
       <c r="AB3" t="n">
-        <v>1800.854482763604</v>
+        <v>1916.106492829857</v>
       </c>
       <c r="AC3" t="n">
-        <v>1628.983458443786</v>
+        <v>1733.235978426528</v>
       </c>
       <c r="AD3" t="n">
-        <v>1316179.226015368</v>
+        <v>1400412.740081939</v>
       </c>
       <c r="AE3" t="n">
-        <v>1800854.482763604</v>
+        <v>1916106.492829857</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.429199365270915e-06</v>
+        <v>2.633203409725158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.86944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>1628983.458443786</v>
+        <v>1733235.978426528</v>
       </c>
     </row>
     <row r="4">
@@ -22800,28 +22800,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1239.412498116386</v>
+        <v>1314.267857716429</v>
       </c>
       <c r="AB4" t="n">
-        <v>1695.818858943205</v>
+        <v>1798.239264333379</v>
       </c>
       <c r="AC4" t="n">
-        <v>1533.972287142382</v>
+        <v>1626.617832790059</v>
       </c>
       <c r="AD4" t="n">
-        <v>1239412.498116386</v>
+        <v>1314267.857716429</v>
       </c>
       <c r="AE4" t="n">
-        <v>1695818.858943205</v>
+        <v>1798239.264333379</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.468228004244835e-06</v>
+        <v>2.705111043971538e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.44861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1533972.287142382</v>
+        <v>1626617.832790059</v>
       </c>
     </row>
   </sheetData>
@@ -23097,28 +23097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3426.529501041841</v>
+        <v>3552.552503118409</v>
       </c>
       <c r="AB2" t="n">
-        <v>4688.328831138412</v>
+        <v>4860.759062322047</v>
       </c>
       <c r="AC2" t="n">
-        <v>4240.881307605227</v>
+        <v>4396.855039532037</v>
       </c>
       <c r="AD2" t="n">
-        <v>3426529.501041841</v>
+        <v>3552552.503118409</v>
       </c>
       <c r="AE2" t="n">
-        <v>4688328.831138412</v>
+        <v>4860759.062322047</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.941252203705841e-07</v>
+        <v>1.597289454470847e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.42222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>4240881.307605227</v>
+        <v>4396855.039532037</v>
       </c>
     </row>
     <row r="3">
@@ -23203,28 +23203,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1771.260035081402</v>
+        <v>1848.970238517172</v>
       </c>
       <c r="AB3" t="n">
-        <v>2423.516122476102</v>
+        <v>2529.842651149139</v>
       </c>
       <c r="AC3" t="n">
-        <v>2192.219145173223</v>
+        <v>2288.398019179926</v>
       </c>
       <c r="AD3" t="n">
-        <v>1771260.035081402</v>
+        <v>1848970.238517172</v>
       </c>
       <c r="AE3" t="n">
-        <v>2423516.122476102</v>
+        <v>2529842.651149139</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.282307947484172e-06</v>
+        <v>2.290749567551298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.02916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2192219.145173223</v>
+        <v>2288398.019179925</v>
       </c>
     </row>
     <row r="4">
@@ -23309,28 +23309,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1398.613480752835</v>
+        <v>1476.153002479462</v>
       </c>
       <c r="AB4" t="n">
-        <v>1913.644666838057</v>
+        <v>2019.737661266699</v>
       </c>
       <c r="AC4" t="n">
-        <v>1731.009105652191</v>
+        <v>1826.976733595016</v>
       </c>
       <c r="AD4" t="n">
-        <v>1398613.480752835</v>
+        <v>1476153.002479461</v>
       </c>
       <c r="AE4" t="n">
-        <v>1913644.666838057</v>
+        <v>2019737.661266699</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.422864998127974e-06</v>
+        <v>2.541844480914571e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.34583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1731009.105652191</v>
+        <v>1826976.733595016</v>
       </c>
     </row>
     <row r="5">
@@ -23415,28 +23415,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1330.814472512048</v>
+        <v>1398.810911706916</v>
       </c>
       <c r="AB5" t="n">
-        <v>1820.87907268187</v>
+        <v>1913.914800579471</v>
       </c>
       <c r="AC5" t="n">
-        <v>1647.096929604941</v>
+        <v>1731.253458208459</v>
       </c>
       <c r="AD5" t="n">
-        <v>1330814.472512048</v>
+        <v>1398810.911706916</v>
       </c>
       <c r="AE5" t="n">
-        <v>1820879.07268187</v>
+        <v>1913914.800579471</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.45147952074226e-06</v>
+        <v>2.592962237326334e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.04305555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>1647096.929604941</v>
+        <v>1731253.458208459</v>
       </c>
     </row>
     <row r="6">
@@ -23521,28 +23521,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1338.265334328162</v>
+        <v>1406.261773523029</v>
       </c>
       <c r="AB6" t="n">
-        <v>1831.0736705275</v>
+        <v>1924.1093984251</v>
       </c>
       <c r="AC6" t="n">
-        <v>1656.318569340392</v>
+        <v>1740.47509794391</v>
       </c>
       <c r="AD6" t="n">
-        <v>1338265.334328162</v>
+        <v>1406261.773523029</v>
       </c>
       <c r="AE6" t="n">
-        <v>1831073.6705275</v>
+        <v>1924109.3984251</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.45147952074226e-06</v>
+        <v>2.592962237326334e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.04444444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1656318.569340392</v>
+        <v>1740475.09794391</v>
       </c>
     </row>
   </sheetData>
